--- a/data/outputs/OR_elsevier/41.xlsx
+++ b/data/outputs/OR_elsevier/41.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS60"/>
+  <dimension ref="A1:BU60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -945,6 +955,12 @@
           <t>2-s2.0-84926522560</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84941186952</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1413,6 +1435,12 @@
           <t>2-s2.0-84923033855</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1662,6 +1690,12 @@
           <t>2-s2.0-84923013346</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1900,6 +1934,12 @@
         <is>
           <t>2-s2.0-84923067667</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -2128,6 +2168,12 @@
           <t>2-s2.0-84955195221</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2366,6 +2412,12 @@
         <is>
           <t>2-s2.0-84930540548</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -2574,6 +2626,12 @@
           <t>2-s2.0-84926526794</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2810,6 +2868,12 @@
         <is>
           <t>2-s2.0-84923015969</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -3038,6 +3102,12 @@
           <t>2-s2.0-84921365683</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3257,6 +3327,12 @@
           <t>2-s2.0-84921417247</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3474,6 +3550,12 @@
           <t>2-s2.0-84921415203</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3693,6 +3775,12 @@
           <t>2-s2.0-84955207674</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3916,6 +4004,12 @@
           <t>2-s2.0-84938992634</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4138,6 +4232,12 @@
         <is>
           <t>2-s2.0-84921383701</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -4346,6 +4446,12 @@
           <t>2-s2.0-84941172987</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4563,6 +4669,12 @@
           <t>2-s2.0-84941167334</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4778,6 +4890,12 @@
           <t>2-s2.0-84936892148</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5016,6 +5134,12 @@
         <is>
           <t>2-s2.0-84930538224</t>
         </is>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -5232,6 +5356,12 @@
           <t>2-s2.0-84926520723</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5447,6 +5577,12 @@
           <t>2-s2.0-84926514094</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5697,6 +5833,12 @@
         <is>
           <t>2-s2.0-84923048320</t>
         </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -5905,6 +6047,12 @@
           <t>2-s2.0-84921436507</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6120,6 +6268,12 @@
           <t>2-s2.0-84955207899</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6343,6 +6497,12 @@
           <t>2-s2.0-84955194448</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6562,6 +6722,12 @@
           <t>2-s2.0-84955170610</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6781,6 +6947,12 @@
           <t>2-s2.0-84955179361</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6995,6 +7167,12 @@
         <is>
           <t>2-s2.0-84941176441</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -7202,6 +7380,12 @@
         <is>
           <t>2-s2.0-84938871058</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -7406,6 +7590,12 @@
           <t>2-s2.0-84955170366</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7613,6 +7803,12 @@
           <t>2-s2.0-84936890439</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7849,6 +8045,12 @@
         <is>
           <t>2-s2.0-84930539178</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -8073,6 +8275,12 @@
           <t>2-s2.0-84930542795</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8292,6 +8500,12 @@
           <t>2-s2.0-84955208077</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8515,6 +8729,12 @@
           <t>2-s2.0-84954544194</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8744,6 +8964,12 @@
           <t>2-s2.0-84955200970</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8965,6 +9191,12 @@
           <t>2-s2.0-84941174057</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9176,6 +9408,12 @@
           <t>2-s2.0-84939000083</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9399,6 +9637,12 @@
           <t>2-s2.0-84938988313</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9614,6 +9858,12 @@
           <t>2-s2.0-84936889959</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9841,6 +10091,12 @@
           <t>2-s2.0-84930540251</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10071,6 +10327,12 @@
         <is>
           <t>2-s2.0-84930542441</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -10287,6 +10549,12 @@
           <t>2-s2.0-84926520690</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10525,6 +10793,12 @@
         <is>
           <t>2-s2.0-84922964036</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -10749,6 +11023,12 @@
           <t>2-s2.0-84921334169</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10975,6 +11255,12 @@
         <is>
           <t>2-s2.0-84955186075</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -11155,6 +11441,12 @@
       <c r="BQ48" t="inlineStr"/>
       <c r="BR48" t="inlineStr"/>
       <c r="BS48" t="inlineStr"/>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11370,6 +11662,12 @@
           <t>2-s2.0-84938970912</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11584,6 +11882,12 @@
         <is>
           <t>2-s2.0-84938998833</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -11768,6 +12072,12 @@
           <t>2-s2.0-84938829546</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11975,6 +12285,12 @@
           <t>2-s2.0-84938974412</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12190,6 +12506,12 @@
           <t>2-s2.0-84936891633</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12404,6 +12726,12 @@
         <is>
           <t>2-s2.0-84936890885</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -12612,6 +12940,12 @@
           <t>2-s2.0-84936891005</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12850,6 +13184,12 @@
         <is>
           <t>2-s2.0-84930539029</t>
         </is>
+      </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -13046,6 +13386,12 @@
           <t>2-s2.0-84930514221</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13280,6 +13626,12 @@
         <is>
           <t>2-s2.0-84930518623</t>
         </is>
+      </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -13472,6 +13824,12 @@
           <t>2-s2.0-84922963378</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13687,6 +14045,12 @@
           <t>2-s2.0-84921437894</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
